--- a/策划案/镇魂街/新配置结构需求.xlsx
+++ b/策划案/镇魂街/新配置结构需求.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
-    <sheet name="新Excel结构需求" sheetId="39" r:id="rId2"/>
-    <sheet name="关卡思路" sheetId="36" state="hidden" r:id="rId3"/>
+    <sheet name="前后效果对比" sheetId="40" r:id="rId2"/>
+    <sheet name="新Excel结构需求" sheetId="39" r:id="rId3"/>
+    <sheet name="关卡思路" sheetId="36" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="卡牌类型名">#REF!</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="295">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1074,6 +1075,118 @@
   </si>
   <si>
     <t>推荐使用DataFromLuaFile功能实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新导表工具优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入配表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配表纠错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要配置复杂的字符串连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以把配置表中不同字段配到不同sheet中，并合并到一个导出表中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人了解配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以配置中文昵称ID，并自动转成数值ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新配置表可读性更强，只看配置表，已经可以大致了解到各系统的资源投放与属性投放。学习掌握也更快了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导表工具有强大的ID，变量类型查错功能。如果填表出现非逻辑性错误，导表时会详细报错，指出哪张表哪个一行哪一列出现错误。几乎杜绝配表错误服务器启动不起来的情况。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体提升详述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前我试做章节关卡，派遣巡逻和地狱道消耗这3大块数值，我数值设计做1天，填表填了2天。使用新的配置表，填表时间可以缩短到0.5天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值策划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解策划案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮策划查错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计表结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的导表工具服务端使用Json，而不是原先的CSV。可以支持更复杂的数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的导表工具，导出的文件可读性也很强。根据以往经验，程序看过完整的配置表后，不太需要看策划案，已经对要做什么了解七七八八了。个别不了解的地方，再看下策划案。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的导表工具，导出的文件可读性也很强，使查错更轻松。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的导表工具，是策划设计的，十分易用。表结构设计也十分容易，完全可以在策划这边完成。策划做完后，程序补充下就好。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以把表结构的设计工作放到策划这里，策划案也可以更快的理解。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的配置表，使用中文ID，已读性很强。可以直接给运营配置表，在做几个数据统计透视表就好。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1278,7 +1391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1557,6 +1670,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1586,7 +1736,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1631,6 +1781,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="9" quotePrefix="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1676,20 +1841,47 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2462,12 +2654,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2476,10 +2668,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2490,26 +2682,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2518,10 +2710,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2530,151 +2722,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2687,12 +2875,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -2718,10 +2910,221 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="61.5" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="49">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="44">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="E4:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="D285" sqref="D285"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="P219" sqref="P219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4216,7 +4619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
